--- a/Stocks/NVDA/Minute.xlsx
+++ b/Stocks/NVDA/Minute.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1950"/>
+  <dimension ref="A1:G1949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45231,29 +45231,6 @@
         <v>314049</v>
       </c>
     </row>
-    <row r="1950" spans="1:7">
-      <c r="A1950" s="2">
-        <v>44596.66666666666</v>
-      </c>
-      <c r="B1950">
-        <v>243.1900024414062</v>
-      </c>
-      <c r="C1950">
-        <v>243.1900024414062</v>
-      </c>
-      <c r="D1950">
-        <v>243.1900024414062</v>
-      </c>
-      <c r="E1950">
-        <v>243.1900024414062</v>
-      </c>
-      <c r="F1950">
-        <v>243.1900024414062</v>
-      </c>
-      <c r="G1950">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
